--- a/item_location.xlsx
+++ b/item_location.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>item</t>
   </si>
@@ -28,16 +28,16 @@
     <t>purple lamy</t>
   </si>
   <si>
-    <t>kilawatt</t>
-  </si>
-  <si>
-    <t>magnifying glasses</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>new2</t>
   </si>
   <si>
     <t>spare bedroom office desk</t>
   </si>
   <si>
-    <t>enter_new_item</t>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -395,62 +395,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
